--- a/sample_stype.xlsx
+++ b/sample_stype.xlsx
@@ -17,7 +17,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -40,16 +40,24 @@
       <sz val="20"/>
       <u val="single"/>
     </font>
+    <font>
+      <color rgb="00FF0000"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0000FF00"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -57,15 +65,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -466,7 +481,7 @@
       <c r="B2" t="n">
         <v>80</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2" s="4" t="n">
         <v>93</v>
       </c>
     </row>
@@ -496,7 +511,7 @@
       <c r="A5" t="n">
         <v>4</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5" s="4" t="n">
         <v>91</v>
       </c>
       <c r="C5" t="n">
@@ -543,7 +558,7 @@
       <c r="B9" t="n">
         <v>52</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9" s="4" t="n">
         <v>91</v>
       </c>
     </row>
